--- a/dataset/task_sheet_answers_v2/WeeklySales/1_WeeklySales/1_WeeklySales_gt2.xlsx
+++ b/dataset/task_sheet_answers_v2/WeeklySales/1_WeeklySales/1_WeeklySales_gt2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MAC\Home\Downloads\workspace\output_dataset_512\199_WeeklySales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers_v2\WeeklySales\1_WeeklySales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0982A6D-6E91-4850-B603-6DB04425C390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FA6433-FFA5-4E7C-9D4E-2D7CA89E68E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3188" yWindow="3188" windowWidth="21599" windowHeight="11332" xr2:uid="{DE390B0A-21FB-4DF8-A5FD-D7DBCB15459B}"/>
+    <workbookView xWindow="13710" yWindow="2475" windowWidth="21150" windowHeight="12750" xr2:uid="{DE390B0A-21FB-4DF8-A5FD-D7DBCB15459B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,14 +91,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -126,16 +126,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,7 +154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -450,13 +453,13 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -469,7 +472,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
